--- a/out/actualoutput.xlsx
+++ b/out/actualoutput.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="nx-55-beko-turkey" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">Point.Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi.95</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,17 +64,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -112,10 +120,6 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -141,15 +145,12 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -175,6 +176,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,211 +352,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="NA" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Point.Forecast</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Lo.80</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Hi.80</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Lo.95</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Hi.95</t>
-        </is>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1620.91785149065</v>
       </c>
-      <c r="B2">
-        <v>368.5582551156938</v>
-      </c>
-      <c r="C2">
-        <v>2873.277447865606</v>
-      </c>
-      <c r="D2">
-        <v>-294.4008688645067</v>
-      </c>
-      <c r="E2">
-        <v>3536.236571845806</v>
+      <c r="B2" t="n">
+        <v>368.558255115694</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2873.27744786561</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-294.400868864507</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3536.23657184581</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1616.479516738426</v>
-      </c>
-      <c r="B3">
-        <v>364.1198953136491</v>
-      </c>
-      <c r="C3">
-        <v>2868.839138163204</v>
-      </c>
-      <c r="D3">
-        <v>-298.8392419271256</v>
-      </c>
-      <c r="E3">
-        <v>3531.798275403979</v>
+      <c r="A3" t="n">
+        <v>1616.47951673843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>364.119895313649</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2868.8391381632</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-298.839241927126</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3531.79827540398</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>1612.041181986203</v>
-      </c>
-      <c r="B4">
-        <v>359.6815042009098</v>
-      </c>
-      <c r="C4">
-        <v>2864.400859771496</v>
-      </c>
-      <c r="D4">
-        <v>-303.2776628753197</v>
-      </c>
-      <c r="E4">
-        <v>3527.360026847725</v>
+      <c r="A4" t="n">
+        <v>1612.0411819862</v>
+      </c>
+      <c r="B4" t="n">
+        <v>359.68150420091</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2864.4008597715</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-303.27766287532</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3527.36002684772</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>1607.602847233979</v>
-      </c>
-      <c r="B5">
-        <v>355.2430692536248</v>
-      </c>
-      <c r="C5">
-        <v>2859.962625214333</v>
-      </c>
-      <c r="D5">
-        <v>-307.7161508626666</v>
-      </c>
-      <c r="E5">
-        <v>3522.921845330625</v>
+      <c r="A5" t="n">
+        <v>1607.60284723398</v>
+      </c>
+      <c r="B5" t="n">
+        <v>355.243069253625</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2859.96262521433</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-307.716150862667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3522.92184533062</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>1603.164512481756</v>
-      </c>
-      <c r="B6">
-        <v>350.8045779479503</v>
-      </c>
-      <c r="C6">
-        <v>2855.524447015561</v>
-      </c>
-      <c r="D6">
+      <c r="A6" t="n">
+        <v>1603.16451248176</v>
+      </c>
+      <c r="B6" t="n">
+        <v>350.80457794795</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2855.52444701556</v>
+      </c>
+      <c r="D6" t="n">
         <v>-312.154725042732</v>
       </c>
-      <c r="E6">
-        <v>3518.483750006243</v>
+      <c r="E6" t="n">
+        <v>3518.48375000624</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>1598.726177729532</v>
-      </c>
-      <c r="B7">
+      <c r="A7" t="n">
+        <v>1598.72617772953</v>
+      </c>
+      <c r="B7" t="n">
         <v>346.366017760055</v>
       </c>
-      <c r="C7">
-        <v>2851.086337699009</v>
-      </c>
-      <c r="D7">
-        <v>-316.5934045690628</v>
-      </c>
-      <c r="E7">
-        <v>3514.045760028127</v>
+      <c r="C7" t="n">
+        <v>2851.08633769901</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-316.593404569063</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3514.04576002813</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>1594.287842977308</v>
-      </c>
-      <c r="B8">
-        <v>341.9273761661284</v>
-      </c>
-      <c r="C8">
-        <v>2846.648309788488</v>
-      </c>
-      <c r="D8">
-        <v>-321.0322085951752</v>
-      </c>
-      <c r="E8">
-        <v>3509.607894549792</v>
+      <c r="A8" t="n">
+        <v>1594.28784297731</v>
+      </c>
+      <c r="B8" t="n">
+        <v>341.927376166128</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2846.64830978849</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-321.032208595175</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3509.60789454979</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>1589.849508225085</v>
-      </c>
-      <c r="B9">
-        <v>337.4886406423852</v>
-      </c>
-      <c r="C9">
-        <v>2842.210375807784</v>
-      </c>
-      <c r="D9">
-        <v>-325.4711562745456</v>
-      </c>
-      <c r="E9">
-        <v>3505.170172724715</v>
+      <c r="A9" t="n">
+        <v>1589.84950822508</v>
+      </c>
+      <c r="B9" t="n">
+        <v>337.488640642385</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2842.21037580778</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-325.471156274546</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3505.17017272472</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>1585.411173472861</v>
-      </c>
-      <c r="B10">
-        <v>333.0497986650755</v>
-      </c>
-      <c r="C10">
-        <v>2837.772548280646</v>
-      </c>
-      <c r="D10">
-        <v>-329.9102667605964</v>
-      </c>
-      <c r="E10">
-        <v>3500.732613706318</v>
+      <c r="A10" t="n">
+        <v>1585.41117347286</v>
+      </c>
+      <c r="B10" t="n">
+        <v>333.049798665076</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2837.77254828065</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-329.910266760596</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3500.73261370632</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>1580.972838720637</v>
-      </c>
-      <c r="B11">
-        <v>328.6108377104956</v>
-      </c>
-      <c r="C11">
-        <v>2833.334839730779</v>
-      </c>
-      <c r="D11">
-        <v>-334.3495592066799</v>
-      </c>
-      <c r="E11">
-        <v>3496.295236647955</v>
+      <c r="A11" t="n">
+        <v>1580.97283872064</v>
+      </c>
+      <c r="B11" t="n">
+        <v>328.610837710496</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2833.33483973078</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-334.34955920668</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3496.29523664795</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>